--- a/orcamentos/Prefeitura de Adamantina _asdasdasd.xlsx
+++ b/orcamentos/Prefeitura de Adamantina _asdasdasd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD550CD9-7791-46C8-8FD2-2E5295CF51C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942A1A2A-8D32-4891-8D6C-FDF6981979C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -148,6 +148,42 @@
   </si>
   <si>
     <t xml:space="preserve">Elizangela Wesolowski </t>
+  </si>
+  <si>
+    <t>Contato 1</t>
+  </si>
+  <si>
+    <t>GR02S</t>
+  </si>
+  <si>
+    <t>1775,93</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa. Aplicação de Strobos</t>
+  </si>
+  <si>
+    <t>GR02CS</t>
+  </si>
+  <si>
+    <t>2071,29</t>
+  </si>
+  <si>
+    <t>Chuva de estrelas produzida em estrutura metálica e mangueira luminosa.  Preenchimento da figura com lâmpadas de LED. Aplicação de strobos.</t>
+  </si>
+  <si>
+    <t>GR03SM</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>1,95</t>
+  </si>
+  <si>
+    <t>3473,08</t>
+  </si>
+  <si>
+    <t>Papai Noel produzido em estrutura metálica e mangueira luminosa. Aplicação de mangueiras de LED com movimentos e Strobos</t>
   </si>
 </sst>
 </file>
@@ -466,7 +502,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -637,6 +673,70 @@
         <v>29</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,7 +747,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -703,7 +803,118 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6CFC89-7183-4CD7-B3C2-336D209F5424}">
-  <dimension ref="A1:J2"/>
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>226</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>309</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6703C5D-6A4F-4AAA-896A-A0B72B880819}">
+  <sheetPr codeName="Planilha5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -746,13 +957,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -761,93 +972,77 @@
         <v>26</v>
       </c>
       <c r="G2">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6703C5D-6A4F-4AAA-896A-A0B72B880819}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2">
+      <c r="G3">
+        <v>236</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>28</v>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Prefeitura de Adamantina _asdasdasd.xlsx
+++ b/orcamentos/Prefeitura de Adamantina _asdasdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942A1A2A-8D32-4891-8D6C-FDF6981979C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0130F2F-7AED-457E-8479-0700C432896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -875,8 +875,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
